--- a/wolf/Excel/Facing_面饰.xlsx
+++ b/wolf/Excel/Facing_面饰.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9015" tabRatio="500"/>
+    <workbookView windowHeight="17655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>Int</t>
   </si>
@@ -109,12 +109,6 @@
     <t>-14|0|-151.5|0|0|-90|1|1|1</t>
   </si>
   <si>
-    <t>南瓜</t>
-  </si>
-  <si>
-    <t>-15|0|-14|0|0|-90|0.6|0.6|0.6</t>
-  </si>
-  <si>
     <t>恶魔头</t>
   </si>
   <si>
@@ -124,7 +118,85 @@
     <t>头套</t>
   </si>
   <si>
-    <t>-14|0|-15|0|0|-90|1|1|1</t>
+    <t>-10|0|-1|0|0|-90|1|1|1</t>
+  </si>
+  <si>
+    <t>-10|0|-1.5|0|0|-90|1|1|1</t>
+  </si>
+  <si>
+    <t>-16|0|-3|0|0|-90|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>-11|0|-4|0|0|-90|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>-10|0|-4|0|0|-90|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>-15|0|-5.5|0|0|-90|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>-4.5|0|-2.75|0|0|-90|1.2|1.2|1.2</t>
+  </si>
+  <si>
+    <t>-4.5|0|-3.88|0|0|-90|1.5|1.5|1.5</t>
+  </si>
+  <si>
+    <t>-4.5|0|-4.5|0|0|-90|1.5|1.5|1.5</t>
+  </si>
+  <si>
+    <t>-4.5|0|-2.24|0|0|-90|1.5|1.5|1.5</t>
+  </si>
+  <si>
+    <t>-10|0|-4|0|0|-90|1|1|1</t>
+  </si>
+  <si>
+    <t>-15|0|-5|0|0|-90|1|1|1</t>
+  </si>
+  <si>
+    <t>-11|0|-6.5|0|0|-90|1|1|1</t>
+  </si>
+  <si>
+    <t>-10|0|0|0|0|-90|1|1|1</t>
+  </si>
+  <si>
+    <t>-15|0|-171|0|0|-90|1|1|1</t>
+  </si>
+  <si>
+    <t>-7.5|0|0|0|0|-90|0.3|0.3|0.3</t>
+  </si>
+  <si>
+    <t>-3.5|0|0|-25|0|-90|1|1|1</t>
+  </si>
+  <si>
+    <t>-15|0|-5|0|0|-90|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>-17|0|-10|0|0|-90|0.7|0.7|0.7</t>
+  </si>
+  <si>
+    <t>-15|0|-3|0|0|-90|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>-7|0|-5|0|0|-90|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>-14|0|-4.5|0|0|-90|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>-15|0|-7.5|0|0|-90|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>-4|0|-2.5|0|0|-90|1.5|1.5|1.5</t>
+  </si>
+  <si>
+    <t>-15|0|-3.5|0|0|-90|1|1|1</t>
+  </si>
+  <si>
+    <t>-9|0|-3.5|0|0|-90|1|1|1</t>
+  </si>
+  <si>
+    <t>-8.5|0|-4.5|0|0|-90|1|1|1</t>
   </si>
 </sst>
 </file>
@@ -162,10 +234,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="1"/>
+      <sz val="10.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -779,8 +850,8 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1315,13 +1386,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U200"/>
+  <dimension ref="A1:U198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.05" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="35.875" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
@@ -1940,7 +2015,7 @@
         <v>26</v>
       </c>
       <c r="C20" s="1">
-        <v>442771</v>
+        <v>136506</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>27</v>
@@ -1965,15 +2040,15 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" ht="17.25" spans="1:21">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="1">
-        <v>136506</v>
+      <c r="C21" s="6">
+        <v>225168</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>29</v>
@@ -1998,18 +2073,16 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" ht="17.25" spans="1:21">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="1">
-        <v>234390</v>
+      <c r="B22" s="1"/>
+      <c r="C22" s="6">
+        <v>225166</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -2031,18 +2104,16 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" ht="17.25" spans="1:21">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="6">
+        <v>225156</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C23" s="1">
-        <v>292089</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -2064,12 +2135,20 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="1"/>
+    <row r="24" ht="17.25" spans="1:21">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="1"/>
+      <c r="C24" s="6">
+        <v>225163</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2087,12 +2166,20 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="1"/>
+    <row r="25" ht="17.25" spans="1:21">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="6">
+        <v>225174</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2110,12 +2197,20 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="1"/>
+    <row r="26" ht="17.25" spans="1:21">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="1"/>
+      <c r="C26" s="6">
+        <v>225165</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2133,12 +2228,20 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="1"/>
+    <row r="27" ht="17.25" spans="1:21">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="1"/>
+      <c r="C27" s="6">
+        <v>225155</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2156,12 +2259,20 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="1"/>
+    <row r="28" ht="17.25" spans="1:21">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="1"/>
+      <c r="C28" s="6">
+        <v>225158</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2179,12 +2290,20 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="1"/>
+    <row r="29" ht="17.25" spans="1:21">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="C29" s="6">
+        <v>225175</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2202,12 +2321,20 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="1"/>
+    <row r="30" ht="17.25" spans="1:21">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C30" s="6">
+        <v>54836</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2225,12 +2352,20 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="1"/>
+    <row r="31" ht="17.25" spans="1:21">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="C31" s="6">
+        <v>68186</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2248,12 +2383,20 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="1"/>
+    <row r="32" ht="17.25" spans="1:21">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="C32" s="6">
+        <v>68192</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2271,12 +2414,20 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="1"/>
+    <row r="33" ht="17.25" spans="1:21">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="C33" s="6">
+        <v>68194</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2294,12 +2445,20 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21">
-      <c r="A34" s="1"/>
+    <row r="34" ht="17.25" spans="1:21">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="C34" s="6">
+        <v>68390</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -2317,12 +2476,20 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="1"/>
+    <row r="35" ht="17.25" spans="1:21">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="C35" s="6">
+        <v>72679</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2340,12 +2507,20 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="1"/>
+    <row r="36" ht="17.25" spans="1:21">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="C36" s="6">
+        <v>183213</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2363,12 +2538,20 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="1"/>
+    <row r="37" ht="17.25" spans="1:21">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="C37" s="6">
+        <v>183214</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2386,12 +2569,20 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="1"/>
+    <row r="38" ht="17.25" spans="1:21">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="C38" s="6">
+        <v>183218</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2409,12 +2600,20 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="1"/>
+    <row r="39" ht="17.25" spans="1:21">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="C39" s="6">
+        <v>183220</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2432,12 +2631,20 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="1"/>
+    <row r="40" ht="17.25" spans="1:21">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="C40" s="6">
+        <v>183221</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2455,12 +2662,20 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="1"/>
+    <row r="41" ht="17.25" spans="1:21">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="C41" s="6">
+        <v>189606</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2478,12 +2693,20 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="1"/>
+    <row r="42" ht="17.25" spans="1:21">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="C42" s="6">
+        <v>209387</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2501,12 +2724,20 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" spans="1:21">
-      <c r="A43" s="1"/>
+    <row r="43" ht="17.25" spans="1:21">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="C43" s="6">
+        <v>324333</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2524,12 +2755,20 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="1:21">
-      <c r="A44" s="1"/>
+    <row r="44" ht="17.25" spans="1:21">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="C44" s="6">
+        <v>366489</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2547,12 +2786,20 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" spans="1:21">
-      <c r="A45" s="1"/>
+    <row r="45" ht="17.25" spans="1:21">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="C45" s="6">
+        <v>479171</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2570,12 +2817,20 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="1:21">
-      <c r="A46" s="1"/>
+    <row r="46" ht="17.25" spans="1:21">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="C46" s="6">
+        <v>189489</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2593,12 +2848,20 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="1:21">
-      <c r="A47" s="1"/>
+    <row r="47" ht="17.25" spans="1:21">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="C47" s="6">
+        <v>373418</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -2616,12 +2879,20 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" spans="1:21">
-      <c r="A48" s="1"/>
+    <row r="48" ht="17.25" spans="1:21">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="C48" s="6">
+        <v>197016</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2639,12 +2910,20 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" spans="1:21">
-      <c r="A49" s="1"/>
+    <row r="49" ht="17.25" spans="1:21">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="C49" s="6">
+        <v>209534</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -2662,12 +2941,20 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
     </row>
-    <row r="50" spans="1:21">
-      <c r="A50" s="1"/>
+    <row r="50" ht="17.25" spans="1:21">
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="C50" s="6">
+        <v>264631</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2685,12 +2972,20 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
     </row>
-    <row r="51" spans="1:21">
-      <c r="A51" s="1"/>
+    <row r="51" ht="17.25" spans="1:21">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="C51" s="6">
+        <v>269529</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2708,12 +3003,20 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
     </row>
-    <row r="52" spans="1:21">
-      <c r="A52" s="1"/>
+    <row r="52" ht="17.25" spans="1:21">
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="C52" s="6">
+        <v>44258</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2731,12 +3034,20 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
     </row>
-    <row r="53" spans="1:21">
-      <c r="A53" s="1"/>
+    <row r="53" ht="17.25" spans="1:21">
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="C53" s="6">
+        <v>44274</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -2754,12 +3065,20 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
     </row>
-    <row r="54" spans="1:21">
-      <c r="A54" s="1"/>
+    <row r="54" ht="17.25" spans="1:21">
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="C54" s="6">
+        <v>54838</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -2777,12 +3096,20 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
     </row>
-    <row r="55" spans="1:21">
-      <c r="A55" s="1"/>
+    <row r="55" ht="17.25" spans="1:21">
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="C55" s="6">
+        <v>68196</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -2800,12 +3127,20 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
     </row>
-    <row r="56" spans="1:21">
-      <c r="A56" s="1"/>
+    <row r="56" ht="17.25" spans="1:21">
+      <c r="A56" s="1">
+        <v>52</v>
+      </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="C56" s="6">
+        <v>68198</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -2823,12 +3158,20 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
     </row>
-    <row r="57" spans="1:21">
-      <c r="A57" s="1"/>
+    <row r="57" ht="17.25" spans="1:21">
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="C57" s="6">
+        <v>68335</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -2846,12 +3189,20 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
     </row>
-    <row r="58" spans="1:21">
-      <c r="A58" s="1"/>
+    <row r="58" ht="17.25" spans="1:21">
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="C58" s="6">
+        <v>68340</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -2869,12 +3220,20 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
     </row>
-    <row r="59" spans="1:21">
-      <c r="A59" s="1"/>
+    <row r="59" ht="17.25" spans="1:21">
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="C59" s="6">
+        <v>112801</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -2892,12 +3251,20 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="60" spans="1:21">
-      <c r="A60" s="1"/>
+    <row r="60" ht="17.25" spans="1:21">
+      <c r="A60" s="1">
+        <v>56</v>
+      </c>
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="C60" s="6">
+        <v>174439</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -2915,12 +3282,20 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
     </row>
-    <row r="61" spans="1:21">
-      <c r="A61" s="1"/>
+    <row r="61" ht="17.25" spans="1:21">
+      <c r="A61" s="1">
+        <v>57</v>
+      </c>
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="C61" s="6">
+        <v>186711</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -2938,12 +3313,20 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
     </row>
-    <row r="62" spans="1:21">
-      <c r="A62" s="1"/>
+    <row r="62" ht="17.25" spans="1:21">
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="C62" s="6">
+        <v>186785</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -2961,12 +3344,20 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
     </row>
-    <row r="63" spans="1:21">
-      <c r="A63" s="1"/>
+    <row r="63" ht="17.25" spans="1:21">
+      <c r="A63" s="1">
+        <v>59</v>
+      </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="C63" s="6">
+        <v>186900</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -2984,12 +3375,20 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" spans="1:21">
-      <c r="A64" s="1"/>
+    <row r="64" ht="17.25" spans="1:21">
+      <c r="A64" s="1">
+        <v>60</v>
+      </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="C64" s="6">
+        <v>369229</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -6089,52 +6488,6 @@
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
     </row>
-    <row r="199" spans="1:21">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
-      <c r="K199" s="1"/>
-      <c r="L199" s="1"/>
-      <c r="M199" s="1"/>
-      <c r="N199" s="1"/>
-      <c r="O199" s="1"/>
-      <c r="P199" s="1"/>
-      <c r="Q199" s="1"/>
-      <c r="R199" s="1"/>
-      <c r="S199" s="1"/>
-      <c r="T199" s="1"/>
-      <c r="U199" s="1"/>
-    </row>
-    <row r="200" spans="1:21">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
-      <c r="K200" s="1"/>
-      <c r="L200" s="1"/>
-      <c r="M200" s="1"/>
-      <c r="N200" s="1"/>
-      <c r="O200" s="1"/>
-      <c r="P200" s="1"/>
-      <c r="Q200" s="1"/>
-      <c r="R200" s="1"/>
-      <c r="S200" s="1"/>
-      <c r="T200" s="1"/>
-      <c r="U200" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
